--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -969,10 +981,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1016,28 +1028,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1062,28 +1074,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1328,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1363,28 +1375,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1421,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1663,10 +1675,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1710,28 +1722,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1756,28 +1768,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2068,10 +2080,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2115,28 +2127,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2161,28 +2173,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2415,10 +2427,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2462,28 +2474,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2508,28 +2520,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2849,10 +2861,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2896,28 +2908,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2942,28 +2954,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3283,10 +3295,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3330,28 +3342,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3376,28 +3388,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3630,10 +3642,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3677,28 +3689,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3723,28 +3735,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4035,10 +4047,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4082,28 +4094,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4128,28 +4140,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4411,10 +4423,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4458,28 +4470,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4504,28 +4516,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4758,10 +4770,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="J160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4805,28 +4817,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4851,28 +4863,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4931,10 +4943,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
